--- a/dev-topics-algorithms/dev-topics-kmer/documentation/PerformanceStats.xlsx
+++ b/dev-topics-algorithms/dev-topics-kmer/documentation/PerformanceStats.xlsx
@@ -39,9 +39,6 @@
     <t>Cleaned Article</t>
   </si>
   <si>
-    <t>Seconds</t>
-  </si>
-  <si>
     <t>% Max</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Factor</t>
+  </si>
+  <si>
+    <t>Elapsed Seconds</t>
   </si>
 </sst>
 </file>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +83,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,10 +121,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -113,12 +134,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,12 +444,12 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.17578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.64453125" customWidth="1"/>
     <col min="3" max="3" width="7.5859375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.76171875" customWidth="1"/>
@@ -435,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -445,15 +468,15 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>39.703000000000003</v>
       </c>
       <c r="E2" s="1">
@@ -486,7 +509,7 @@
       <c r="C4" s="1">
         <v>14.391</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>0.2115089</v>
       </c>
       <c r="F4">
@@ -495,14 +518,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <f>ROUND(C2/E4, 2)</f>
         <v>187.71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -554,7 +577,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">

--- a/dev-topics-algorithms/dev-topics-kmer/documentation/PerformanceStats.xlsx
+++ b/dev-topics-algorithms/dev-topics-kmer/documentation/PerformanceStats.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="107" windowWidth="14807" windowHeight="8013"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Performance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Odometer</t>
   </si>
@@ -49,6 +47,9 @@
   </si>
   <si>
     <t>Elapsed Seconds</t>
+  </si>
+  <si>
+    <t>Improvement</t>
   </si>
 </sst>
 </file>
@@ -58,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +99,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -125,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -139,6 +146,7 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -441,11 +449,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -454,9 +460,14 @@
     <col min="3" max="3" width="7.5859375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.76171875" customWidth="1"/>
     <col min="5" max="5" width="7.234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.41015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.64453125" customWidth="1"/>
+    <col min="10" max="10" width="6.5859375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5859375" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -471,8 +482,19 @@
       <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -486,8 +508,17 @@
         <f>ROUND(C2/E2,2)</f>
         <v>7.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -501,8 +532,19 @@
         <f t="shared" ref="F3:F4" si="0">ROUND(C3/E3,2)</f>
         <v>34.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f>ROUND(C2/C3, 2)</f>
+        <v>2.57</v>
+      </c>
+      <c r="L3" s="2">
+        <f>ROUND(E2/E3, 2)</f>
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -516,14 +558,25 @@
         <f t="shared" si="0"/>
         <v>68.040000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <f>ROUND(C3/C4, 2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="L4" s="2">
+        <f>ROUND(E3/E4, 2)</f>
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="F5" s="8">
         <f>ROUND(C2/E4, 2)</f>
         <v>187.71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -536,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -549,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -562,7 +615,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -575,7 +628,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -588,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -601,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -614,7 +667,7 @@
         <v>11.831</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -627,10 +680,10 @@
         <v>25.338000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
@@ -657,28 +710,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>